--- a/cost and agg data/costs.xlsx
+++ b/cost and agg data/costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seama\Dropbox\WHO Regional HBV Model\mav_test\cost and agg data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seama\Documents\GitHub\hbv-globalinvcase\cost and agg data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8475DE-9E5A-4345-9ACE-A526C64B5E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478B67F1-0C5C-4F42-BA25-F9CA5B69FB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vax" sheetId="1" r:id="rId1"/>
@@ -465,7 +465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -1113,8 +1113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6906F714-43D2-42AA-8517-3A8ACF0E36C5}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,22 +1147,22 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.57099999999999995</v>
+        <v>0.61468214076037997</v>
       </c>
       <c r="C2">
-        <v>0.622</v>
+        <v>0.55262223278794431</v>
       </c>
       <c r="D2">
-        <v>0.41899999999999998</v>
+        <v>0.40433094909584144</v>
       </c>
       <c r="E2">
-        <v>0.62</v>
+        <v>0.52227726435656996</v>
       </c>
       <c r="F2">
-        <v>0.53600000000000003</v>
+        <v>0.50964741541426695</v>
       </c>
       <c r="G2">
-        <v>0.66800000000000004</v>
+        <v>0.63606075542735163</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1170,22 +1170,22 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>2953.45</v>
+        <v>2876.4043718682283</v>
       </c>
       <c r="C3">
-        <v>24783.040000000001</v>
+        <v>26921.187206594397</v>
       </c>
       <c r="D3">
-        <v>8056.84</v>
+        <v>6968.2705059452574</v>
       </c>
       <c r="E3">
-        <v>31251.08</v>
+        <v>36006.05023083181</v>
       </c>
       <c r="F3">
-        <v>5378.48</v>
+        <v>5332.0499726245516</v>
       </c>
       <c r="G3">
-        <v>18811.82</v>
+        <v>18914.837507476877</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
